--- a/整合結果/聯合國際/excel_by_week/2025_W25.xlsx
+++ b/整合結果/聯合國際/excel_by_week/2025_W25.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C61"/>
+  <dimension ref="A1:C86"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -475,12 +475,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>本周開盤前 五件國際事不可不知</t>
+          <t>影/伊朗人逃難潮曝光！德黑蘭民眾擠爆加油站 哀嘆「全市沒避難所」</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/6811/8809255?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/6809/8809984?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -492,12 +492,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>以色列防禦利器「鐵穹」的造價和運作原理？它有弱點！</t>
+          <t>日產執行長：計劃減持雷諾股票 資金投入新車開發</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/124061/8809268?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/6811/8809908?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -509,12 +509,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>以伊持續互轟 油價開盤一度飆5% 美股期指平穩 金價逼近新高</t>
+          <t>全球最危險的旅遊國家在亞洲！新加坡榮登最安全亞軍 狠甩日本</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/6811/8809275?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/6809/8809896?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -526,12 +526,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>【專家之眼】哈佛陷入財政困境都是川普害的？背離初心</t>
+          <t>美國搶稀土出招 考慮放貸1.2億美元給格陵蘭稀土計畫</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/6813/8809276?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/6813/8809808?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -543,12 +543,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>以色列伊朗最新戰況一次看！川普看好「打一仗後」談成協議</t>
+          <t>幾無牽制 以色列照自己的節奏重塑中東秩序</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/124061/8809285?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/124061/8809775?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -560,12 +560,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>川普閱兵美夢變噩夢 內憂外患夾擊79歲生日樂不起來</t>
+          <t>樂極生悲！17歲青年海灘拍攝畢業照 下水玩遭急流捲走遇溺亡</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>https://vip.udn.com/vip/story/121937/8808608?from=udn-category</t>
+          <t>https://udn.com/news/story/6812/8809704?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -577,12 +577,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>川普稱以色列和伊朗可能要先「打一打」再談</t>
+          <t>美議員連環暗殺槍手落網！FBI懸賞150萬 狂過濾400多條線索</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/124061/8809298?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/6813/8809694?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -594,12 +594,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>川普擋下以色列暗殺伊朗最高領袖！美方暗示踩1紅線才考慮</t>
+          <t>謀殺親夫！新郎度蜜月被殺棄屍山谷 新娘自首與情夫策畫後潛逃</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/124061/8809304?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/6812/8809562?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -611,12 +611,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>汽車救星空降時尚界！Gucci母公司開雲 挖角雷諾CEO梅奧跨界操盤</t>
+          <t>胸前掛「護身佛牌」剛好擋下子彈 商人遭仇家連轟兩槍奇蹟保住性命</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/6811/8809319?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/6810/8809416?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -628,12 +628,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>川普速報／川普成G7最大變數 日相不妥協汽車關稅</t>
+          <t>1股黃金股 川普給日本製鐵戴上緊箍咒！恐改寫外資併購遊戲規則</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>https://vip.udn.com/vip/story/122714/8809302?from=udn-category</t>
+          <t>https://udn.com/news/story/6813/8809626?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -645,12 +645,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>簡立峰專欄／美晶片管制能擋陸？中東或改變全球AI版圖</t>
+          <t>曾是學霸當過「假面浪人」 他棄東大醫學系改當哲學家</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>https://vip.udn.com/vip/story/122861/8808276?from=udn-category</t>
+          <t>https://vip.udn.com/vip/story/121937/8797788?from=udn-category</t>
         </is>
       </c>
     </row>
@@ -662,12 +662,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>「身高」關係競爭力？長得高有優勢 韓小學生瘋打針投資未來</t>
+          <t>現實版007的上司! 英國軍情六處首任女處長「C夫人」上任</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/6810/8809254?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/6809/8809571?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -679,12 +679,12 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>以色列空襲伊朗美國卻裝瞎 是全球秩序重組的前夕？</t>
+          <t>川普是全場變數！G7峰會加拿大登場氣氛緊張 專家盼無爆炸性衝突</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>https://vip.udn.com/vip/story/122714/8807979?from=udn-category</t>
+          <t>https://udn.com/news/story/6813/8809464?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -696,12 +696,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Fed今年恐只降息一次 以伊衝突火爆讓這一風險大增</t>
+          <t>驅逐非法移民擬再擴大 川普點名洛杉磯、芝加哥和紐約</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/6811/8809401?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/6813/8809446?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -730,12 +730,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>驅逐非法移民擬再擴大 川普點名洛杉磯、芝加哥和紐約</t>
+          <t>觀光客小心 在巴塞隆納遇水槍伺候！南歐多城爆示威 抗議過度旅遊</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/6813/8809446?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/6809/8809415?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -747,12 +747,12 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>川普是全場變數！G7峰會加拿大登場氣氛緊張 專家盼無爆炸性衝突</t>
+          <t>Fed今年恐只降息一次 以伊衝突火爆讓這一風險大增</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/6813/8809464?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/6811/8809401?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -764,12 +764,12 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>現實版007的上司! 英國軍情六處首任女處長「C夫人」上任</t>
+          <t>影／伊朗人逃難潮曝光！德黑蘭民眾擠爆加油站 哀嘆「全市沒避難所」</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/6809/8809571?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/124061/8809984?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -781,12 +781,12 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>曾是學霸當過「假面浪人」 他棄東大醫學系改當哲學家</t>
+          <t>少了一個人登機…機組員很忙！絕不能讓行李留貨艙 空服員曝理由</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>https://vip.udn.com/vip/story/121937/8797788?from=udn-category</t>
+          <t>https://udn.com/news/story/6812/8809300?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -798,12 +798,12 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>1股黃金股 川普給日本製鐵戴上緊箍咒！恐改寫外資併購遊戲規則</t>
+          <t>AI修復藝術畫作？ 數位重建僅需數小時</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/6813/8809626?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/6812/8809965?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -815,12 +815,12 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>胸前掛「護身佛牌」剛好擋下子彈 商人遭仇家連轟兩槍奇蹟保住性命</t>
+          <t>千名信徒聚集廣場 宣稱「英國屬於耶穌」</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/6810/8809416?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/6809/8810036?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -832,12 +832,12 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>謀殺親夫！新郎度蜜月被殺棄屍山谷 新娘自首與情夫策畫後潛逃</t>
+          <t>伊朗徹夜發動飛彈攻勢 以色列至少新增5死100傷</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/6812/8809562?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/124061/8810390?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -849,12 +849,12 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>美議員連環暗殺槍手落網！FBI懸賞150萬 狂過濾400多條線索</t>
+          <t>伊朗議長爆「內鬼通外敵」！擬組伊斯蘭聯軍對抗以色列</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/6813/8809694?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/124061/8810398?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -866,12 +866,12 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>樂極生悲！17歲青年海灘拍攝畢業照 下水玩遭急流捲走遇溺亡</t>
+          <t>印航波音787又出包！香港起飛「空中突遇技術問題」緊急返航</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/6812/8809704?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/124515/8810328?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -883,12 +883,12 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>幾無牽制 以色列照自己的節奏重塑中東秩序</t>
+          <t>外媒分析：三個憤怒的老男人 可能害死我們所有的人！</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/124061/8809775?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/124061/8810320?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -900,12 +900,12 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>美國搶稀土出招 考慮放貸1.2億美元給格陵蘭稀土計畫</t>
+          <t>以色列擬暗殺伊朗最高領袖 被川普攔下 內唐亞胡：川是伊朗頭號暗殺對象</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/6813/8809808?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/124061/8809530?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -917,12 +917,12 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>觀光客小心 在巴塞隆納遇水槍伺候！南歐多城爆示威 抗議過度旅遊</t>
+          <t>中東升溫 英派軍機增援 德籲會談：各方施壓才能結束衝突</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/6809/8809415?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/6809/8809980?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -934,12 +934,12 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>不演了！ 以色列總理：伊朗政權超虛弱 很可能出現政權更替</t>
+          <t>國會預算處：大又美法案恐致收入最低10%家庭年損1600元</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/124061/8809199?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/6813/8809506?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -951,12 +951,12 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>全美「無王日」盤點反川示威地點、人數 圖解明州2議員遇襲處</t>
+          <t>美軍前高層：2027攻台論像宣傳口號 這1年非決定性時刻</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>https://vip.udn.com/vip/story/122664/8809152?from=udn-category</t>
+          <t>https://udn.com/news/story/6813/8809574?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -968,12 +968,12 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>葛謨助理賀立寧閃辭 被爆曾任中資高層、隱瞞對中關係</t>
+          <t>「身高」關係競爭力？長得高有優勢 韓小學生瘋打針投資未來</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/6813/8809211?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/6810/8809254?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -985,12 +985,12 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>令和米騷亂／日本米不上談判桌 會因川普破例？</t>
+          <t>伊朗最高領袖哈米尼陷危機 伊軍弱點暴露無遺</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/124068/8808985?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/124061/8809682?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -1002,12 +1002,12 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>令和米騷亂／氣候+政策致米價翻倍 日本米荒非偶然</t>
+          <t>明州槍手有5子女「充滿愛心」 好友收訣別簡訊：我時日無多</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/124068/8808983?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/6813/8810168?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -1019,12 +1019,12 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>令和米騷亂／稻米政策 日本參院選舉關鍵</t>
+          <t>學者：美國政治暴力已成常態 動機理由不一</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/124068/8809017?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/6813/8810153?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -1036,12 +1036,12 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>令和米騷亂／脆弱糧食供應鏈 日本國安隱憂</t>
+          <t>CNN：川普締造和平的人設崩塌？3原因恐被迫參戰以伊衝突</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/124068/8809024?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/6813/8810238?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -1053,12 +1053,12 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>印度下令徹查波音787 不排除停飛</t>
+          <t>抱娃用餐店員主動提供「1服務」 5寶媽感動：眼淚要掉下來了</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/124515/8809064?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/6812/8810067?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -1070,12 +1070,12 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>又空難 印度直升機神廟旁墜毀7死</t>
+          <t>買方進場良機須備足自備款</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/124515/8809067?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/6811/8806038?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -1087,12 +1087,12 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>杜拜67層高樓大火 3280人暗夜逃、奇蹟無傷亡</t>
+          <t>因應擁核以滿足用電聲浪 亞銀考慮解除核電融資禁令</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/6812/8809101?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/6811/8810120?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -1104,12 +1104,12 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>聯合新聞網</t>
+          <t>南韓央行：人民幣可能左右韓元波動 貿易戰時期關聯更高</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/124068/8808954?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/6811/8810114?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -1121,12 +1121,12 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>路透曝中美倫敦談判細節 陸未鬆綁軍用稀土</t>
+          <t>以色列與伊朗持續互轟：川普施壓伊朗達成核協議、反對以色列刺殺伊朗最高領袖</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/124373/8809062?from=udn-catelistnews_ch2</t>
+          <t>https://global.udn.com/global_vision/story/8662/8810063</t>
         </is>
       </c>
     </row>
@@ -1138,12 +1138,12 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>阻川普進逼 馬克宏訪格陵蘭「發出訊號」</t>
+          <t>路透：美國敦促越南和中國科技「脫鉤」少用陸製零組件</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/6809/8809105?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/6811/8810251?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -1155,12 +1155,12 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>德國開綠燈 歐盟擬投資核電8.4兆元</t>
+          <t>以色列為何開戰？以軍官曝伊朗「祕密計畫」：幾天內就可造15枚核彈</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/6811/8809057?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/124061/8810432?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -1172,12 +1172,12 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>無王日抗議潮…全美示威 川普閱兵</t>
+          <t>簡立峰專欄／美晶片管制能擋陸？中東或改變全球AI版圖</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/6813/8809147?from=udn-catelistnews_ch2</t>
+          <t>https://vip.udn.com/vip/story/122861/8808276?from=udn-category</t>
         </is>
       </c>
     </row>
@@ -1189,12 +1189,12 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>被針對？美擬增36國旅遊禁令 有25國在非洲</t>
+          <t>汽車救星空降時尚界！Gucci母公司開雲 挖角雷諾CEO梅奧跨界操盤</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/6813/8809097?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/6811/8809319?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -1206,12 +1206,12 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>衝突升級！以伊互轟 全球最大天然氣田大火</t>
+          <t>烏克蘭、以色列展示 無人機敵境突襲 改變戰爭新打法</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/124061/8809148?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/6809/8809157?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -1223,12 +1223,12 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>會以伊外長 王毅表態 譴責以色列侵犯伊朗</t>
+          <t>G7峰會開幕 將討論中東危機 英國派軍機赴中東</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/124061/8809161?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/124061/8809159?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -1240,12 +1240,12 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>G7峰會開幕 將討論中東危機 英國派軍機赴中東</t>
+          <t>會以伊外長 王毅表態 譴責以色列侵犯伊朗</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/124061/8809159?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/124061/8809161?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -1257,12 +1257,12 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>烏克蘭、以色列展示 無人機敵境突襲 改變戰爭新打法</t>
+          <t>衝突升級！以伊互轟 全球最大天然氣田大火</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/6809/8809157?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/124061/8809148?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -1274,12 +1274,12 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>以色列丕變 走向中東區域霸權</t>
+          <t>被針對？美擬增36國旅遊禁令 有25國在非洲</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/124061/8809156?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/6813/8809097?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -1291,12 +1291,12 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>以伊衝突擴及能源設施 中東能源供應拉警報</t>
+          <t>無王日抗議潮…全美示威 川普閱兵</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/6811/8809155?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/6813/8809147?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -1308,12 +1308,12 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>掃蕩非法移民 川普政策被迫轉彎</t>
+          <t>德國開綠燈 歐盟擬投資核電8.4兆元</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/6813/8809089?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/6811/8809057?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -1325,12 +1325,12 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>不演了！ 以色列總理：伊朗政權超虛弱 很可能出現政權更替</t>
+          <t>阻川普進逼 馬克宏訪格陵蘭「發出訊號」</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/124061/8809199?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/6809/8809105?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -1342,12 +1342,12 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>美中貿易戰休兵擬再延90天 倫敦談判未觸及軍用稀土問題</t>
+          <t>路透曝中美倫敦談判細節 陸未鬆綁軍用稀土</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/124373/8809028?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/124373/8809062?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -1359,12 +1359,12 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>川普靠加密幣賺5,740萬美元</t>
+          <t>聯合新聞網</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/6813/8809041?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/124068/8808954?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -1376,12 +1376,12 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>東協躍南韓最大出口市場 逾20年來首次超車大陸</t>
+          <t>杜拜67層高樓大火 3280人暗夜逃、奇蹟無傷亡</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/6811/8808980?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/6812/8809101?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -1393,12 +1393,12 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>美推進穩定幣 零售商按讚 可望作為與信用卡商議價籌碼</t>
+          <t>又空難 印度直升機神廟旁墜毀7死</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/6811/8809036?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/124515/8809067?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -1410,12 +1410,12 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>韓刺激經濟 要砸146億美元</t>
+          <t>印度下令徹查波音787 不排除停飛</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/6811/8808984?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/124515/8809064?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -1427,12 +1427,12 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>因應當前經濟 近8成美國人改變花錢方式</t>
+          <t>令和米騷亂／脆弱糧食供應鏈 日本國安隱憂</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/6813/8809209?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/124068/8809024?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -1444,12 +1444,12 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>全球最危險的旅遊國家在亞洲！新加坡榮登最安全亞軍 狠甩日本</t>
+          <t>令和米騷亂／稻米政策 日本參院選舉關鍵</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/6809/8809896?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/124068/8809017?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -1461,12 +1461,437 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>影/伊朗人逃難潮曝光！德黑蘭民眾擠爆加油站 哀嘆「全市沒避難所」</t>
+          <t>令和米騷亂／氣候+政策致米價翻倍 日本米荒非偶然</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/6809/8809984?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/124068/8808983?from=udn-catelistnews_ch2</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>令和米騷亂／日本米不上談判桌 會因川普破例？</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>https://udn.com/news/story/124068/8808985?from=udn-catelistnews_ch2</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>以色列丕變 走向中東區域霸權</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>https://udn.com/news/story/124061/8809156?from=udn-catelistnews_ch2</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>以伊衝突擴及能源設施 中東能源供應拉警報</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>https://udn.com/news/story/6811/8809155?from=udn-catelistnews_ch2</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>掃蕩非法移民 川普政策被迫轉彎</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>https://udn.com/news/story/6813/8809089?from=udn-catelistnews_ch2</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>不演了！ 以色列總理：伊朗政權超虛弱 很可能出現政權更替</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>https://udn.com/news/story/124061/8809199?from=udn-catelistnews_ch2</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>川普擋下以色列暗殺伊朗最高領袖！美方暗示踩1紅線才考慮</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>https://udn.com/news/story/124061/8809304?from=udn-catelistnews_ch2</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>川普稱以色列和伊朗可能要先「打一打」再談</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>https://udn.com/news/story/124061/8809298?from=udn-catelistnews_ch2</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>川普閱兵美夢變噩夢 內憂外患夾擊79歲生日樂不起來</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>https://vip.udn.com/vip/story/121937/8808608?from=udn-category</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>以色列伊朗最新戰況一次看！川普看好「打一仗後」談成協議</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>https://udn.com/news/story/124061/8809285?from=udn-catelistnews_ch2</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>【專家之眼】哈佛陷入財政困境都是川普害的？背離初心</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>https://udn.com/news/story/6813/8809276?from=udn-catelistnews_ch2</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>以伊持續互轟 油價開盤一度飆5% 美股期指平穩 金價逼近新高</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>https://udn.com/news/story/6811/8809275?from=udn-catelistnews_ch2</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>以色列防禦利器「鐵穹」的造價和運作原理？它有弱點！</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>https://udn.com/news/story/124061/8809268?from=udn-catelistnews_ch2</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>本周開盤前 五件國際事不可不知</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>https://udn.com/news/story/6811/8809255?from=udn-catelistnews_ch2</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>川普速報／川普成G7最大變數 日相不妥協汽車關稅</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>https://vip.udn.com/vip/story/122714/8809302?from=udn-category</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>以色列空襲伊朗美國卻裝瞎 是全球秩序重組的前夕？</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>https://vip.udn.com/vip/story/122714/8807979?from=udn-category</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>全美「無王日」盤點反川示威地點、人數 圖解明州2議員遇襲處</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>https://vip.udn.com/vip/story/122664/8809152?from=udn-category</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>葛謨助理賀立寧閃辭 被爆曾任中資高層、隱瞞對中關係</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>https://udn.com/news/story/6813/8809211?from=udn-catelistnews_ch2</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>因應當前經濟 近8成美國人改變花錢方式</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>https://udn.com/news/story/6813/8809209?from=udn-catelistnews_ch2</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>韓刺激經濟 要砸146億美元</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>https://udn.com/news/story/6811/8808984?from=udn-catelistnews_ch2</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>美推進穩定幣 零售商按讚 可望作為與信用卡商議價籌碼</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>https://udn.com/news/story/6811/8809036?from=udn-catelistnews_ch2</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>東協躍南韓最大出口市場 逾20年來首次超車大陸</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>https://udn.com/news/story/6811/8808980?from=udn-catelistnews_ch2</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>川普靠加密幣賺5,740萬美元</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>https://udn.com/news/story/6813/8809041?from=udn-catelistnews_ch2</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>美中貿易戰休兵擬再延90天 倫敦談判未觸及軍用稀土問題</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>https://udn.com/news/story/124373/8809028?from=udn-catelistnews_ch2</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>不演了！ 以色列總理：伊朗政權超虛弱 很可能出現政權更替</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>https://udn.com/news/story/124061/8809199?from=udn-catelistnews_ch2</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>新飛彈突防以色列 分析：伊朗恐用荷莫茲海峽籌碼「避免美以聯手是上策」</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>https://udn.com/news/story/124061/8810364?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>

--- a/整合結果/聯合國際/excel_by_week/2025_W25.xlsx
+++ b/整合結果/聯合國際/excel_by_week/2025_W25.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C86"/>
+  <dimension ref="A1:C175"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -475,12 +475,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>影/伊朗人逃難潮曝光！德黑蘭民眾擠爆加油站 哀嘆「全市沒避難所」</t>
+          <t>以色列擬暗殺伊朗最高領袖 被川普攔下 內唐亞胡：川是伊朗頭號暗殺對象</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/6809/8809984?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/124061/8809530?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -492,12 +492,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>日產執行長：計劃減持雷諾股票 資金投入新車開發</t>
+          <t>中東升溫 英派軍機增援 德籲會談：各方施壓才能結束衝突</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/6811/8809908?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/6809/8809980?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -509,12 +509,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>全球最危險的旅遊國家在亞洲！新加坡榮登最安全亞軍 狠甩日本</t>
+          <t>國會預算處：大又美法案恐致收入最低10%家庭年損1600元</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/6809/8809896?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/6813/8809506?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -526,12 +526,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>美國搶稀土出招 考慮放貸1.2億美元給格陵蘭稀土計畫</t>
+          <t>美軍前高層：2027攻台論像宣傳口號 這1年非決定性時刻</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/6813/8809808?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/6813/8809574?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -543,12 +543,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>幾無牽制 以色列照自己的節奏重塑中東秩序</t>
+          <t>伊朗最高領袖哈米尼陷危機 伊軍弱點暴露無遺</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/124061/8809775?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/124061/8809682?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -560,12 +560,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>樂極生悲！17歲青年海灘拍攝畢業照 下水玩遭急流捲走遇溺亡</t>
+          <t>路透：美國敦促越南和中國科技「脫鉤」少用陸製零組件</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/6812/8809704?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/6811/8810251?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -577,12 +577,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>美議員連環暗殺槍手落網！FBI懸賞150萬 狂過濾400多條線索</t>
+          <t>明州槍手有5子女「充滿愛心」 好友收訣別簡訊：我時日無多</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/6813/8809694?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/6813/8810168?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -594,12 +594,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>謀殺親夫！新郎度蜜月被殺棄屍山谷 新娘自首與情夫策畫後潛逃</t>
+          <t>學者：美國政治暴力已成常態 動機理由不一</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/6812/8809562?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/6813/8810153?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -611,12 +611,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>胸前掛「護身佛牌」剛好擋下子彈 商人遭仇家連轟兩槍奇蹟保住性命</t>
+          <t>CNN：川普締造和平的人設崩塌？3原因恐被迫參戰以伊衝突</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/6810/8809416?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/6813/8810238?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -628,12 +628,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>1股黃金股 川普給日本製鐵戴上緊箍咒！恐改寫外資併購遊戲規則</t>
+          <t>抱娃用餐店員主動提供「1服務」 5寶媽感動：眼淚要掉下來了</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/6813/8809626?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/6812/8810067?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -645,12 +645,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>曾是學霸當過「假面浪人」 他棄東大醫學系改當哲學家</t>
+          <t>買方進場良機須備足自備款</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>https://vip.udn.com/vip/story/121937/8797788?from=udn-category</t>
+          <t>https://udn.com/news/story/6811/8806038?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -662,12 +662,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>現實版007的上司! 英國軍情六處首任女處長「C夫人」上任</t>
+          <t>因應擁核以滿足用電聲浪 亞銀考慮解除核電融資禁令</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/6809/8809571?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/6811/8810120?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -679,12 +679,12 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>川普是全場變數！G7峰會加拿大登場氣氛緊張 專家盼無爆炸性衝突</t>
+          <t>南韓央行：人民幣可能左右韓元波動 貿易戰時期關聯更高</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/6813/8809464?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/6811/8810114?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -696,12 +696,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>驅逐非法移民擬再擴大 川普點名洛杉磯、芝加哥和紐約</t>
+          <t>以色列與伊朗持續互轟：川普施壓伊朗達成核協議、反對以色列刺殺伊朗最高領袖</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/6813/8809446?from=udn-catelistnews_ch2</t>
+          <t>https://global.udn.com/global_vision/story/8662/8810063</t>
         </is>
       </c>
     </row>
@@ -713,12 +713,12 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>阿布達比國營事業出價190 億美元欲收購澳洲Santos</t>
+          <t>千名信徒聚集廣場 宣稱「英國屬於耶穌」</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/6811/8809444?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/6809/8810036?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -730,12 +730,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>觀光客小心 在巴塞隆納遇水槍伺候！南歐多城爆示威 抗議過度旅遊</t>
+          <t>AI修復藝術畫作？ 數位重建僅需數小時</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/6809/8809415?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/6812/8809965?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -747,12 +747,12 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Fed今年恐只降息一次 以伊衝突火爆讓這一風險大增</t>
+          <t>少了一個人登機…機組員很忙！絕不能讓行李留貨艙 空服員曝理由</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/6811/8809401?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/6812/8809300?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -781,12 +781,12 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>少了一個人登機…機組員很忙！絕不能讓行李留貨艙 空服員曝理由</t>
+          <t>影/伊朗人逃難潮曝光！德黑蘭民眾擠爆加油站 哀嘆「全市沒避難所」</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/6812/8809300?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/6809/8809984?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -798,12 +798,12 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>AI修復藝術畫作？ 數位重建僅需數小時</t>
+          <t>日產執行長：計劃減持雷諾股票 資金投入新車開發</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/6812/8809965?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/6811/8809908?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -815,12 +815,12 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>千名信徒聚集廣場 宣稱「英國屬於耶穌」</t>
+          <t>全球最危險的旅遊國家在亞洲！新加坡榮登最安全亞軍 狠甩日本</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/6809/8810036?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/6809/8809896?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -832,12 +832,12 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>伊朗徹夜發動飛彈攻勢 以色列至少新增5死100傷</t>
+          <t>美國搶稀土出招 考慮放貸1.2億美元給格陵蘭稀土計畫</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/124061/8810390?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/6813/8809808?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -849,12 +849,12 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>伊朗議長爆「內鬼通外敵」！擬組伊斯蘭聯軍對抗以色列</t>
+          <t>幾無牽制 以色列照自己的節奏重塑中東秩序</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/124061/8810398?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/124061/8809775?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -866,12 +866,12 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>印航波音787又出包！香港起飛「空中突遇技術問題」緊急返航</t>
+          <t>外媒分析：三個憤怒的老男人 可能害死我們所有的人！</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/124515/8810328?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/124061/8810320?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -883,12 +883,12 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>外媒分析：三個憤怒的老男人 可能害死我們所有的人！</t>
+          <t>印航波音787又出包！香港起飛「空中突遇技術問題」緊急返航</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/124061/8810320?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/124515/8810328?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -900,12 +900,12 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>以色列擬暗殺伊朗最高領袖 被川普攔下 內唐亞胡：川是伊朗頭號暗殺對象</t>
+          <t>伊朗議長爆「內鬼通外敵」！擬組伊斯蘭聯軍對抗以色列</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/124061/8809530?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/124061/8810398?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -917,12 +917,12 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>中東升溫 英派軍機增援 德籲會談：各方施壓才能結束衝突</t>
+          <t>伊朗徹夜發動飛彈攻勢 以色列至少新增5死100傷</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/6809/8809980?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/124061/8810390?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -934,12 +934,12 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>國會預算處：大又美法案恐致收入最低10%家庭年損1600元</t>
+          <t>澤倫斯基：G7峰會將與川普討論買美國武器 不談新軍援</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/6813/8809506?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/122663/8811284?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -951,12 +951,12 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>美軍前高層：2027攻台論像宣傳口號 這1年非決定性時刻</t>
+          <t>最後通牒要求解除邊境限制 柬埔寨揚言禁止泰國蔬果進口</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/6813/8809574?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/6809/8810941?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -968,12 +968,12 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>「身高」關係競爭力？長得高有優勢 韓小學生瘋打針投資未來</t>
+          <t>撈錢有術！川普集團發表要價499美元智慧手機 吃到飽月費有玄機</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/6810/8809254?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/6811/8811095?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -985,12 +985,12 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>伊朗最高領袖哈米尼陷危機 伊軍弱點暴露無遺</t>
+          <t>大陸2航空母艦同時出動 日本：疑演練「台海衝突」如何對抗美軍</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/124061/8809682?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/6809/8811035?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -1002,12 +1002,12 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>明州槍手有5子女「充滿愛心」 好友收訣別簡訊：我時日無多</t>
+          <t>中東衝突升級 美參議員再提案限制川普向伊朗宣戰</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/6813/8810168?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/124061/8811022?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -1019,12 +1019,12 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>學者：美國政治暴力已成常態 動機理由不一</t>
+          <t>內唐亞胡拋震撼彈：川普去年競選2度遇暗殺 「伊朗是主謀」</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/6813/8810153?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/124061/8811004?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -1036,12 +1036,12 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>CNN：川普締造和平的人設崩塌？3原因恐被迫參戰以伊衝突</t>
+          <t>德媒：歐盟準備接受美國10%全面關稅 但「有條件」</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/6813/8810238?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/124373/8810987?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -1053,12 +1053,12 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>抱娃用餐店員主動提供「1服務」 5寶媽感動：眼淚要掉下來了</t>
+          <t>釋出儲備米贏民心 小泉進次郎躍居日首相熱門人選</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/6812/8810067?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/6809/8810861?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -1070,12 +1070,12 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>買方進場良機須備足自備款</t>
+          <t>衛報：英中關係改善 中國擬解除對英國議員制裁</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/6811/8806038?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/6809/8810698?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -1087,12 +1087,12 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>因應擁核以滿足用電聲浪 亞銀考慮解除核電融資禁令</t>
+          <t>陸女歸化日籍選議員喊「保護日人」 被翻出「為了在日華人」速刪留言</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/6811/8810120?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/6809/8810674?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -1104,12 +1104,12 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>南韓央行：人民幣可能左右韓元波動 貿易戰時期關聯更高</t>
+          <t>以色列總理拋震撼彈：川普2024年兩度遇刺 伊朗是幕後黑手</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/6811/8810114?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/124061/8810738?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -1121,12 +1121,12 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>以色列與伊朗持續互轟：川普施壓伊朗達成核協議、反對以色列刺殺伊朗最高領袖</t>
+          <t>樂極生悲！17歲青年海灘拍攝畢業照 下水玩遭急流捲走遇溺亡</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>https://global.udn.com/global_vision/story/8662/8810063</t>
+          <t>https://udn.com/news/story/6812/8809704?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -1138,12 +1138,12 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>路透：美國敦促越南和中國科技「脫鉤」少用陸製零組件</t>
+          <t>如果台灣變成戰場，媒體如何繼續報導？從緬甸內戰採訪看台海戰爭危機</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/6811/8810251?from=udn-catelistnews_ch2</t>
+          <t>https://global.udn.com/global_vision/story/8663/8810657</t>
         </is>
       </c>
     </row>
@@ -1155,12 +1155,12 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>以色列為何開戰？以軍官曝伊朗「祕密計畫」：幾天內就可造15枚核彈</t>
+          <t>瑞典智庫：全球9擁核國家正強化核武庫 冷戰以來首見反轉</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/124061/8810432?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/6809/8810647?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -1172,12 +1172,12 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>簡立峰專欄／美晶片管制能擋陸？中東或改變全球AI版圖</t>
+          <t>市場恢復平靜、油價金價回檔 美股期指彈高</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>https://vip.udn.com/vip/story/122861/8808276?from=udn-category</t>
+          <t>https://udn.com/news/story/6811/8810677?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -1189,12 +1189,12 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>汽車救星空降時尚界！Gucci母公司開雲 挖角雷諾CEO梅奧跨界操盤</t>
+          <t>北京籲以色列、伊朗 為重回對話談判創造條件</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/6811/8809319?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/124061/8810666?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -1206,12 +1206,12 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>烏克蘭、以色列展示 無人機敵境突襲 改變戰爭新打法</t>
+          <t>伊朗外交部：國會準備提案 退出禁止核子擴散條約</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/6809/8809157?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/124061/8810669?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -1223,12 +1223,12 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>G7峰會開幕 將討論中東危機 英國派軍機赴中東</t>
+          <t>美軍隨意步伐引關注！川普閱兵遭陸網群嘲：還不如大陸高中生的軍訓</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/124061/8809159?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/6813/8810658?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -1240,12 +1240,12 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>會以伊外長 王毅表態 譴責以色列侵犯伊朗</t>
+          <t>美國航空母艦突改航線！越南接待取消 傳因「緊急作戰需求」奔中東</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/124061/8809161?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/124061/8810503?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -1257,12 +1257,12 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>衝突升級！以伊互轟 全球最大天然氣田大火</t>
+          <t>美國航空母艦突改航線！越南接待取消 傳因「緊急作戰需求」</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/124061/8809148?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/124061/8810503?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -1274,12 +1274,12 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>被針對？美擬增36國旅遊禁令 有25國在非洲</t>
+          <t>美國明尼蘇達州議員槍擊案 州長：嫌疑人逃兩天落網</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/6813/8809097?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/6813/8810552?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -1291,12 +1291,12 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>無王日抗議潮…全美示威 川普閱兵</t>
+          <t>報案抵現場未達5分鐘反應時間目標 菲律賓8城市警長遭撤換</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/6813/8809147?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/6809/8810392?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -1308,12 +1308,12 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>德國開綠燈 歐盟擬投資核電8.4兆元</t>
+          <t>新飛彈突防以色列 分析：伊朗恐用荷莫茲海峽籌碼「避免美以聯手是上策」</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/6811/8809057?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/124061/8810364?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -1325,12 +1325,12 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>阻川普進逼 馬克宏訪格陵蘭「發出訊號」</t>
+          <t>以色列為何開戰？以軍官曝伊朗「祕密計畫」：幾天內就可造15枚核彈</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/6809/8809105?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/124061/8810432?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -1342,12 +1342,12 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>路透曝中美倫敦談判細節 陸未鬆綁軍用稀土</t>
+          <t>身陷多案調查 南韓前第一夫人金建希住院…疑慢性病惡化</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/124373/8809062?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/6809/8810688?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -1359,12 +1359,12 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>聯合新聞網</t>
+          <t>美議員連環暗殺槍手落網！FBI懸賞150萬 狂過濾400多條線索</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/124068/8808954?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/6813/8809694?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -1376,12 +1376,12 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>杜拜67層高樓大火 3280人暗夜逃、奇蹟無傷亡</t>
+          <t>伊朗再襲以色列 美國駐特拉維夫領事館遭波及受損</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/6812/8809101?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/124061/8810442?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -1393,12 +1393,12 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>又空難 印度直升機神廟旁墜毀7死</t>
+          <t>胸前掛「護身佛牌」剛好擋下子彈 商人遭仇家連轟兩槍奇蹟保住性命</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/124515/8809067?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/6810/8809416?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -1410,12 +1410,12 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>印度下令徹查波音787 不排除停飛</t>
+          <t>東協躍南韓最大出口市場 逾20年來首次超車大陸</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/124515/8809064?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/6811/8808980?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -1427,12 +1427,12 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>令和米騷亂／脆弱糧食供應鏈 日本國安隱憂</t>
+          <t>美中貿易戰休兵擬再延90天 倫敦談判未觸及軍用稀土問題</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/124068/8809024?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/124373/8809028?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -1444,12 +1444,12 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>令和米騷亂／稻米政策 日本參院選舉關鍵</t>
+          <t>不演了！ 以色列總理：伊朗政權超虛弱 很可能出現政權更替</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/124068/8809017?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/124061/8809199?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -1461,12 +1461,12 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>令和米騷亂／氣候+政策致米價翻倍 日本米荒非偶然</t>
+          <t>掃蕩非法移民 川普政策被迫轉彎</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/124068/8808983?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/6813/8809089?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -1478,12 +1478,12 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>令和米騷亂／日本米不上談判桌 會因川普破例？</t>
+          <t>以伊衝突擴及能源設施 中東能源供應拉警報</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/124068/8808985?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/6811/8809155?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -1512,12 +1512,12 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>以伊衝突擴及能源設施 中東能源供應拉警報</t>
+          <t>烏克蘭、以色列展示 無人機敵境突襲 改變戰爭新打法</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/6811/8809155?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/6809/8809157?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -1529,12 +1529,12 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>掃蕩非法移民 川普政策被迫轉彎</t>
+          <t>G7峰會開幕 將討論中東危機 英國派軍機赴中東</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/6813/8809089?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/124061/8809159?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -1546,12 +1546,12 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>不演了！ 以色列總理：伊朗政權超虛弱 很可能出現政權更替</t>
+          <t>會以伊外長 王毅表態 譴責以色列侵犯伊朗</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/124061/8809199?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/124061/8809161?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -1563,12 +1563,12 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>川普擋下以色列暗殺伊朗最高領袖！美方暗示踩1紅線才考慮</t>
+          <t>衝突升級！以伊互轟 全球最大天然氣田大火</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/124061/8809304?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/124061/8809148?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -1580,12 +1580,12 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>川普稱以色列和伊朗可能要先「打一打」再談</t>
+          <t>被針對？美擬增36國旅遊禁令 有25國在非洲</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/124061/8809298?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/6813/8809097?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -1597,12 +1597,12 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>川普閱兵美夢變噩夢 內憂外患夾擊79歲生日樂不起來</t>
+          <t>美推進穩定幣 零售商按讚 可望作為與信用卡商議價籌碼</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>https://vip.udn.com/vip/story/121937/8808608?from=udn-category</t>
+          <t>https://udn.com/news/story/6811/8809036?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -1614,12 +1614,12 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>以色列伊朗最新戰況一次看！川普看好「打一仗後」談成協議</t>
+          <t>無王日抗議潮…全美示威 川普閱兵</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/124061/8809285?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/6813/8809147?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -1631,12 +1631,12 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>【專家之眼】哈佛陷入財政困境都是川普害的？背離初心</t>
+          <t>阻川普進逼 馬克宏訪格陵蘭「發出訊號」</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/6813/8809276?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/6809/8809105?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -1648,12 +1648,12 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>以伊持續互轟 油價開盤一度飆5% 美股期指平穩 金價逼近新高</t>
+          <t>路透曝中美倫敦談判細節 陸未鬆綁軍用稀土</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/6811/8809275?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/124373/8809062?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -1665,12 +1665,12 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>以色列防禦利器「鐵穹」的造價和運作原理？它有弱點！</t>
+          <t>聯合新聞網</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/124061/8809268?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/124068/8808954?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -1682,12 +1682,12 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>本周開盤前 五件國際事不可不知</t>
+          <t>杜拜67層高樓大火 3280人暗夜逃、奇蹟無傷亡</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/6811/8809255?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/6812/8809101?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -1699,12 +1699,12 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>川普速報／川普成G7最大變數 日相不妥協汽車關稅</t>
+          <t>又空難 印度直升機神廟旁墜毀7死</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>https://vip.udn.com/vip/story/122714/8809302?from=udn-category</t>
+          <t>https://udn.com/news/story/124515/8809067?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -1716,12 +1716,12 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>以色列空襲伊朗美國卻裝瞎 是全球秩序重組的前夕？</t>
+          <t>印度下令徹查波音787 不排除停飛</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>https://vip.udn.com/vip/story/122714/8807979?from=udn-category</t>
+          <t>https://udn.com/news/story/124515/8809064?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -1733,12 +1733,12 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>全美「無王日」盤點反川示威地點、人數 圖解明州2議員遇襲處</t>
+          <t>令和米騷亂／脆弱糧食供應鏈 日本國安隱憂</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>https://vip.udn.com/vip/story/122664/8809152?from=udn-category</t>
+          <t>https://udn.com/news/story/124068/8809024?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -1750,12 +1750,12 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>葛謨助理賀立寧閃辭 被爆曾任中資高層、隱瞞對中關係</t>
+          <t>令和米騷亂／稻米政策 日本參院選舉關鍵</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/6813/8809211?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/124068/8809017?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -1767,12 +1767,12 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>因應當前經濟 近8成美國人改變花錢方式</t>
+          <t>令和米騷亂／氣候+政策致米價翻倍 日本米荒非偶然</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/6813/8809209?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/124068/8808983?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -1784,12 +1784,12 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>韓刺激經濟 要砸146億美元</t>
+          <t>令和米騷亂／日本米不上談判桌 會因川普破例？</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/6811/8808984?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/124068/8808985?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -1801,12 +1801,12 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>美推進穩定幣 零售商按讚 可望作為與信用卡商議價籌碼</t>
+          <t>謀殺親夫！新郎度蜜月被殺棄屍山谷 新娘自首與情夫策畫後潛逃</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/6811/8809036?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/6812/8809562?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -1818,12 +1818,12 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>東協躍南韓最大出口市場 逾20年來首次超車大陸</t>
+          <t>德國開綠燈 歐盟擬投資核電8.4兆元</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/6811/8808980?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/6811/8809057?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -1835,12 +1835,12 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>川普靠加密幣賺5,740萬美元</t>
+          <t>韓刺激經濟 要砸146億美元</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/6813/8809041?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/6811/8808984?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -1852,12 +1852,12 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>美中貿易戰休兵擬再延90天 倫敦談判未觸及軍用稀土問題</t>
+          <t>川普靠加密幣賺5,740萬美元</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/124373/8809028?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/6813/8809041?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -1869,12 +1869,12 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>不演了！ 以色列總理：伊朗政權超虛弱 很可能出現政權更替</t>
+          <t>葛謨助理賀立寧閃辭 被爆曾任中資高層、隱瞞對中關係</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/124061/8809199?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/6813/8809211?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -1886,12 +1886,1525 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>新飛彈突防以色列 分析：伊朗恐用荷莫茲海峽籌碼「避免美以聯手是上策」</t>
+          <t>1股黃金股 川普給日本製鐵戴上緊箍咒！恐改寫外資併購遊戲規則</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/124061/8810364?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/6813/8809626?from=udn-catelistnews_ch2</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>曾是學霸當過「假面浪人」 他棄東大醫學系改當哲學家</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>https://vip.udn.com/vip/story/121937/8797788?from=udn-category</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>現實版007的上司！ 英國軍情六處首任女處長「C夫人」上任</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>https://udn.com/news/story/6809/8809571?from=udn-catelistnews_ch2</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>現實版007的上司! 英國軍情六處首任女處長「C夫人」上任</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>https://udn.com/news/story/6809/8809571?from=udn-catelistnews_ch2</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>川普是全場變數！G7峰會加拿大登場氣氛緊張 專家盼無爆炸性衝突</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>https://udn.com/news/story/6813/8809464?from=udn-catelistnews_ch2</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>驅逐非法移民擬再擴大 川普點名洛杉磯、芝加哥和紐約</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>https://udn.com/news/story/6813/8809446?from=udn-catelistnews_ch2</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>阿布達比國營事業出價190 億美元欲收購澳洲Santos</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>https://udn.com/news/story/6811/8809444?from=udn-catelistnews_ch2</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>觀光客小心 在巴塞隆納遇水槍伺候！南歐多城爆示威 抗議過度旅遊</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>https://udn.com/news/story/6809/8809415?from=udn-catelistnews_ch2</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>Fed今年恐只降息一次 以伊衝突火爆讓這一風險大增</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>https://udn.com/news/story/6811/8809401?from=udn-catelistnews_ch2</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>「身高」關係競爭力？長得高有優勢 韓小學生瘋打針投資未來</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>https://udn.com/news/story/6810/8809254?from=udn-catelistnews_ch2</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>因應當前經濟 近8成美國人改變花錢方式</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>https://udn.com/news/story/6813/8809209?from=udn-catelistnews_ch2</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>川普速報／川普成G7最大變數 日相不妥協汽車關稅</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>https://vip.udn.com/vip/story/122714/8809302?from=udn-category</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>汽車救星空降時尚界！Gucci母公司開雲 挖角雷諾CEO梅奧跨界操盤</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>https://udn.com/news/story/6811/8809319?from=udn-catelistnews_ch2</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>簡立峰專欄／美晶片管制能擋陸？中東或改變全球AI版圖</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>https://vip.udn.com/vip/story/122861/8808276?from=udn-category</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>川普稱以色列和伊朗可能要先「打一打」再談</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>https://udn.com/news/story/124061/8809298?from=udn-catelistnews_ch2</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>川普閱兵美夢變噩夢 內憂外患夾擊79歲生日樂不起來</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>https://vip.udn.com/vip/story/121937/8808608?from=udn-category</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>以色列伊朗最新戰況一次看！川普看好「打一仗後」談成協議</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>https://udn.com/news/story/124061/8809285?from=udn-catelistnews_ch2</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>【專家之眼】哈佛陷入財政困境都是川普害的？背離初心</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>https://udn.com/news/story/6813/8809276?from=udn-catelistnews_ch2</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>以伊持續互轟 油價開盤一度飆5% 美股期指平穩 金價逼近新高</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>https://udn.com/news/story/6811/8809275?from=udn-catelistnews_ch2</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>以色列防禦利器「鐵穹」的造價和運作原理？它有弱點！</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>https://udn.com/news/story/124061/8809268?from=udn-catelistnews_ch2</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>本周開盤前 五件國際事不可不知</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>https://udn.com/news/story/6811/8809255?from=udn-catelistnews_ch2</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>以色列空襲伊朗美國卻裝瞎 是全球秩序重組的前夕？</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>https://vip.udn.com/vip/story/122714/8807979?from=udn-category</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>不演了！ 以色列總理：伊朗政權超虛弱 很可能出現政權更替</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>https://udn.com/news/story/124061/8809199?from=udn-catelistnews_ch2</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>川普擋下以色列暗殺伊朗最高領袖！美方暗示踩1紅線才考慮</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>https://udn.com/news/story/124061/8809304?from=udn-catelistnews_ch2</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>全美「無王日」盤點反川示威地點、人數 圖解明州2議員遇襲處</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>https://vip.udn.com/vip/story/122664/8809152?from=udn-category</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>2025-06-17</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>以伊衝突升溫…習近平表態：深感擔憂 應推動盡快降溫</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>https://udn.com/news/story/124061/8813446?from=udn-catelistnews_ch2</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>2025-06-17</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>印尼勒沃托比火山噴發 11公里高灰雲畫面曝光</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>https://udn.com/news/story/6812/8813596?from=udn-catelistnews_ch2</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>2025-06-17</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>俄大規模襲烏民宅至少15死 澤倫斯基斥恐怖分子</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>https://udn.com/news/story/122663/8813903?from=udn-catelistnews_ch2</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>2025-06-17</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>德媒：慕尼黑工大 陸女大生受間諜調查</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>https://udn.com/news/story/6812/8813726?from=udn-catelistnews_ch2</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>2025-06-17</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>ICE大規模行動燒錢 預算下月恐將用罄</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>https://udn.com/news/story/6813/8813906?from=udn-catelistnews_ch2</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>2025-06-17</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>襲擊摩薩德設施成功！伊朗革命衛隊：情報機構起火燃燒</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>https://udn.com/news/story/124061/8813328?from=udn-catelistnews_ch2</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>2025-06-17</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>俄烏戰爭難落幕？俄國安高層證實：北韓將加派6千人</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>https://udn.com/news/story/122663/8813641?from=udn-catelistnews_ch2</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>2025-06-17</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>羅馬禧年致敬畫壇巨擘 舉辦卡拉瓦喬2025展覽</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>https://udn.com/news/story/6812/8813309?from=udn-catelistnews_ch2</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>2025-06-17</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>智慧手表誤判？在家突收「19分鐘游泳紀錄」 他驚覺大事不妙</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>https://udn.com/news/story/6810/8812911?from=udn-catelistnews_ch2</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>2025-06-17</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>基輔面臨最致命攻擊 烏遭夜襲至少15死116傷</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>https://udn.com/news/story/122663/8813140?from=udn-catelistnews_ch2</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>2025-06-17</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>美國「孤兒列車」（上）：送走20萬名孩子的社會實驗，如何重寫收養制度？</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>https://global.udn.com/global_vision/story/8664/8811974</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>2025-06-17</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>芬太尼入侵：馬來西亞成國際毒品轉運站，含毒電子煙氾濫校園</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>https://global.udn.com/global_vision/story/8663/8812444</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>2025-06-17</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>印航波音787再出包 空中突遇技術問題 香港起飛又返航</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>https://udn.com/news/story/124515/8811753?from=udn-catelistnews_ch2</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>2025-06-17</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>文化與身份焦慮：墨西哥國旗在美國洛杉磯抗爭中的象徵意義？</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>https://global.udn.com/global_vision/story/8664/8811945</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>2025-06-17</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>旗柄刺穿睪丸！小六男童昏迷20分鐘 學校安排「這樣送院」遭父母怒轟</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>https://udn.com/news/story/6810/8811623?from=udn-catelistnews_ch2</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>2025-06-17</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>雙方未進行和談！川普曝「沒有尋求停火」 盼伊朗「完全放棄」</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>https://udn.com/news/story/124061/8813190?from=udn-catelistnews_ch2</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>2025-06-18</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>過度關注「點狀圖」會有什麼問題？「Fed傳聲筒」解釋給你聽</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>https://udn.com/news/story/6813/8815210?from=udn-catelistnews_ch2</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>2025-06-18</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>說好的戰略夥伴？以猛轟伊朗、俄國袖手旁觀 專家曝「現實考量」</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>https://udn.com/news/story/6809/8815186?from=udn-catelistnews_ch2</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>2025-06-18</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>洛杉磯街頭動亂趨緩 市長宣布解除宵禁</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>https://udn.com/news/story/6813/8814287?from=udn-catelistnews_ch2</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>2025-06-18</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>哥倫比亞總統候選人頭中2彈命危 涉嫌槍手僅15歲</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>https://udn.com/news/story/6809/8814302?from=udn-catelistnews_ch2</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>2025-06-18</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>奧特曼爆料Ｍeta開1億美元挖角AI人才 暗諷挖不走人原因</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>https://udn.com/news/story/6811/8815107?from=udn-catelistnews_ch2</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>2025-06-18</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>印尼勒沃托比火山噴發 往返峇里島航班取消</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>https://udn.com/news/story/6812/8815061?from=udn-catelistnews_ch2</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>2025-06-18</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>影／馬克宏G7悄悄話惹來梅洛尼大白眼 網友瘋猜說了什麼？</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>https://udn.com/news/story/6809/8815237?from=udn-catelistnews_ch2</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>2025-06-18</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>整理包／以伊開戰戰火蔓延中東！台灣要關注什麼？恩怨、最新進展與各國反應一次看懂</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>https://udn.com/news/story/124061/8814381?from=udn-catelistnews_ch2</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>2025-06-18</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>瑞典最大宗環境罪案 「垃圾女王」亂倒20萬噸有毒物遭判刑</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>https://udn.com/news/story/6812/8814312?from=udn-catelistnews_ch2</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>2025-06-18</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>美若參戰加入以色列 美情報曝「伊朗備飛彈」中東美軍基地將遭報復</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>https://udn.com/news/story/124061/8815263?from=udn-catelistnews_ch2</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>2025-06-18</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>川普提早離席G7為介入中東？學者曝3點「對中共有利」：台灣很危險</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>https://udn.com/news/story/6809/8815347?from=udn-catelistnews_ch2</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>2025-06-18</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>【重磅快評】川普出兵伊朗？美國正走向另一個帝國墳場</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>https://udn.com/news/story/124061/8815307?from=udn-catelistnews_ch2</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>2025-06-18</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>以色列與伊朗結果誰勝誰負？ CNN：關鍵在「這組數字」</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>https://udn.com/news/story/124061/8815028?from=udn-catelistnews_ch2</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>2025-06-18</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>多誘人？地緣政治+通膨推升黃金買盤 好市多買金條報酬率驚人</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>https://udn.com/news/story/6811/8815346?from=udn-catelistnews_ch2</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>2025-06-18</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>中美在倫敦經貿談判啟示？專家：未來邏輯是講實力跟壓力</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>https://udn.com/news/story/124373/8815410?from=udn-catelistnews_ch2</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>2025-06-18</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>戰火下加薩婦女身心受創 每小時近2人喪命、數千兒童被迫截肢</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>https://udn.com/news/story/6809/8815419?from=udn-catelistnews_ch2</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>2025-06-18</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>以伊戰爭核心力量！從軍事編制到影響力 一次看懂伊斯蘭革命衛隊</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>https://udn.com/news/story/124061/8815353?from=udn-catelistnews_ch2</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>2025-06-18</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>日圓走貶！日經指數創近4個月最高 投資人仍緊盯以伊衝突</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>https://udn.com/news/story/6811/8815440?from=udn-catelistnews_ch2</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>2025-06-18</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>奇特「海蜘蛛」生態首曝光 活在黑暗深海、靠吃甲烷細菌長大</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>https://udn.com/news/story/6810/8815452?from=udn-catelistnews_ch2</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>2025-06-18</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>波音787雙引擎故障？外媒曝印航空難調查 緊急發電機墜毀前疑啟動</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>https://udn.com/news/story/6809/8815476?from=udn-catelistnews_ch2</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>2025-06-18</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>3度續命？川普將再簽行政命令 讓TikTok在美繼續營運</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>https://udn.com/news/story/6813/8815511?from=udn-catelistnews_ch2</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>2025-06-18</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>川普見獵心喜想對伊朗動武？雖有勝算但恐難收場</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>https://vip.udn.com/vip/story/121937/8815283?from=udn-category</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>2025-06-18</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>英特爾要大裁員！砍晶圓製造部門15-20％人力 1萬人恐失業</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>https://udn.com/news/story/6811/8814964?from=udn-catelistnews_ch2</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>2025-06-18</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>尼爾森報告：串流首度稱霸電視螢幕 超越傳統與有線電視總和</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>https://udn.com/news/story/6811/8814836?from=udn-catelistnews_ch2</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>2025-06-18</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>川普未與澤倫斯基會面就離開G7 烏克蘭有苦難言</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>https://udn.com/news/story/6809/8814922?from=udn-catelistnews_ch2</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>2025-06-18</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>川普踢鐵板！聯邦法官下令恢復核發「X」跨性別護照</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>https://udn.com/news/story/6813/8815460?from=udn-catelistnews_ch2</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>2025-06-18</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>G7變G9？ 川普：俄應重返G8 中國加入也不錯</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>https://udn.com/news/story/6809/8813896?from=udn-catelistnews_ch2</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>2025-06-18</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>川普僅與英簽協議就離開G7峰會 各國盼降關稅落空</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>https://udn.com/news/story/6809/8813900?from=udn-catelistnews_ch2</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>2025-06-18</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>美媒：美中貿易談判前 美曾考慮擴大科技限制</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>https://udn.com/news/story/124373/8813904?from=udn-catelistnews_ch2</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>2025-06-18</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>美日貿易會談無共識 日相：保護汽車產業</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>https://udn.com/news/story/124373/8813902?from=udn-catelistnews_ch2</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>2025-06-18</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>與G7叫板？習近平出席中亞峰會 喊關稅戰沒贏家</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>https://udn.com/news/story/124373/8813796?from=udn-catelistnews_ch2</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>2025-06-18</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>《晶片戰爭》作者看關稅戰 米勒：晶片課稅 代價高</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>https://udn.com/news/story/124373/8813857?from=udn-catelistnews_ch2</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>2025-06-18</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>美擬擴大半導體租稅減免</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>https://udn.com/news/story/124373/8813854?from=udn-catelistnews_ch2</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>2025-06-18</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>以伊衝突惡化 油價大漲逾4% 美股道指跌近300點</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>https://udn.com/news/story/6811/8814019?from=udn-catelistnews_ch2</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>2025-06-18</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>慘！42歲男子爬樹摘芒果 手持鐵桿不幸觸電昏迷樹上亡</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>https://udn.com/news/story/6810/8814109?from=udn-catelistnews_ch2</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>2025-06-18</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>美國拒加強對俄施壓 G7峰會無挺烏聯合聲明</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>https://udn.com/news/story/6809/8814892?from=udn-catelistnews_ch2</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>2025-06-18</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>5年前鑽石公主號染疫成海上孤島 工程師突發奇想神救援</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>https://vip.udn.com/vip/story/121937/8810463?from=udn-category</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>2025-06-18</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>廣東話女狂毆韓國計程車司機！打到耳出血 1原因無禁出境直飛香港</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>https://udn.com/news/story/6810/8814123?from=udn-catelistnews_ch2</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>2025-06-18</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>因應以色列與伊朗衝突？美軍印太司令部突升安全警戒等級</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>https://udn.com/news/story/6809/8814152?from=udn-catelistnews_ch2</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>2025-06-18</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>川普速報／川普再延TikTok禁令90天 美中角力未歇</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>https://vip.udn.com/vip/story/122714/8814149?from=udn-category</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>2025-06-18</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>川普將再簽行政命令 3度讓TikTok在美繼續營運</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>https://udn.com/news/story/6813/8814170?from=udn-catelistnews_ch2</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>2025-06-18</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>以色列伊朗持續衝突 美駐耶路撒冷大使館關閉3天</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>https://udn.com/news/story/124061/8814156?from=udn-catelistnews_ch2</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>2025-06-18</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>伊朗官宣發射「法塔」極音速飛彈 突破以色列「神話般」防空系統</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>https://udn.com/news/story/124061/8814234?from=udn-catelistnews_ch2</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>2025-06-18</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>擺脫不了中國製？ 專家點出川普集團499美元手機的貓膩</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>https://udn.com/news/story/6813/8814460?from=udn-catelistnews_ch2</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>2025-06-18</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>AI裁員潮來了？亞馬遜CEO警告：未來數年人力將減少</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>https://udn.com/news/story/6811/8814483?from=udn-catelistnews_ch2</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>2025-06-18</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>川普要求無條件投降 伊朗最高領袖回敬「戰鬥開始了」</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>https://udn.com/news/story/124061/8814501?from=udn-catelistnews_ch2</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>2025-06-18</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>波灣GPS干擾加劇 近千艘船舶定位錯亂 出現「陸上行舟」奇觀</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>https://udn.com/news/story/124061/8814861?from=udn-catelistnews_ch2</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>2025-06-18</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>美這顆30,000磅重巨型鑽地彈 可能摧毀伊朗核野心</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>https://udn.com/news/story/124061/8814125?from=udn-catelistnews_ch2</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>2025-06-18</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>76%男性自慰時會想著前任！ 專家喊「很正常」：不必過度解讀</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>https://udn.com/news/story/6812/8815398?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
